--- a/焦煤/eta/焦煤288口岸监管区总库存_月度数据.xlsx
+++ b/焦煤/eta/焦煤288口岸监管区总库存_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>211</v>
+        <v>216.2</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>213.2</v>
+        <v>218.2</v>
       </c>
       <c r="C3" t="n">
-        <v>231.5</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>267.4</v>
       </c>
       <c r="C4" t="n">
-        <v>335.4</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>257</v>
       </c>
       <c r="C5" t="n">
-        <v>350.6</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>310.2</v>
       </c>
       <c r="C6" t="n">
-        <v>390.4</v>
+        <v>391.6</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>401.5</v>
       </c>
       <c r="C7" t="n">
-        <v>392.3</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>368.4</v>
       </c>
       <c r="C8" t="n">
-        <v>371.3</v>
+        <v>370.8</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>398.1</v>
       </c>
       <c r="C9" t="n">
-        <v>397.2</v>
+        <v>397.3</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>439.3</v>
       </c>
       <c r="C10" t="n">
-        <v>439.8</v>
+        <v>439.7</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>439</v>
       </c>
       <c r="C11" t="n">
-        <v>435.5</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>362.7</v>
       </c>
       <c r="C12" t="n">
-        <v>363.7</v>
+        <v>363.6</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>415</v>
       </c>
       <c r="C13" t="n">
-        <v>412.8</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>384.7</v>
       </c>
       <c r="C14" t="n">
-        <v>384.1</v>
+        <v>384.6</v>
       </c>
     </row>
     <row r="15">
@@ -640,7 +640,7 @@
         <v>358.9</v>
       </c>
       <c r="C16" t="n">
-        <v>357.7</v>
+        <v>357.8</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>359.6</v>
       </c>
       <c r="C17" t="n">
-        <v>358.4</v>
+        <v>358.5</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>302.4</v>
       </c>
       <c r="C18" t="n">
-        <v>304.1</v>
+        <v>304.2</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>325.1</v>
       </c>
       <c r="C19" t="n">
-        <v>325.1</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>307.8</v>
       </c>
       <c r="C20" t="n">
-        <v>307.7</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>336.7</v>
       </c>
       <c r="C21" t="n">
-        <v>338.6</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>275.1</v>
       </c>
       <c r="C22" t="n">
-        <v>274.8</v>
+        <v>274.9</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>272.6</v>
       </c>
       <c r="C23" t="n">
-        <v>272.6</v>
+        <v>272.5</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>216.5</v>
       </c>
       <c r="C24" t="n">
-        <v>216.6</v>
+        <v>216.7</v>
       </c>
     </row>
     <row r="25">
